--- a/documentation/Automatic_tests/automatic_tests_scopes.xlsx
+++ b/documentation/Automatic_tests/automatic_tests_scopes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Automatic_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264A7ED8-1C4E-2D4F-A1EA-9CF17097E0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0064F0-0E23-1442-8B82-B0CDAB038DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1100" windowWidth="27640" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>-</t>
   </si>
@@ -202,9 +202,6 @@
     <t>fisherman</t>
   </si>
   <si>
-    <t>ACL</t>
-  </si>
-  <si>
     <t>Roles</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
     <t>all_all</t>
   </si>
   <si>
-    <t>some_some</t>
-  </si>
-  <si>
     <t>fishingwater_manager</t>
   </si>
   <si>
@@ -307,16 +301,28 @@
     <t>secretary, guest</t>
   </si>
   <si>
-    <t>all_all, some_some</t>
-  </si>
-  <si>
-    <t>all_some, some_some</t>
-  </si>
-  <si>
-    <t>some_all, some_some</t>
-  </si>
-  <si>
-    <t>some_some, some_some</t>
+    <t>some_some_secretary</t>
+  </si>
+  <si>
+    <t>some_some_guest</t>
+  </si>
+  <si>
+    <t>some_some_fisherman</t>
+  </si>
+  <si>
+    <t>all_all, some_some_fisherman</t>
+  </si>
+  <si>
+    <t>all_some, some_some_fisherman</t>
+  </si>
+  <si>
+    <t>some_all, some_some_fisherman</t>
+  </si>
+  <si>
+    <t>some_some_secretary, some_some_guest</t>
+  </si>
+  <si>
+    <t>ACLs</t>
   </si>
 </sst>
 </file>
@@ -1403,7 +1409,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,7 +1417,7 @@
     <col min="1" max="1" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="117.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -1422,7 +1428,7 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -1433,18 +1439,18 @@
         <v>43</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="16">
         <v>1</v>
@@ -1457,75 +1463,75 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="17">
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="17">
         <v>3</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" s="17">
         <v>4</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" s="17">
         <v>5</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="20">
         <v>6</v>
@@ -1534,95 +1540,95 @@
         <v>53</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" s="17">
         <v>7</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="16">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="16">
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="16">
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="15">
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/Automatic_tests/automatic_tests_scopes.xlsx
+++ b/documentation/Automatic_tests/automatic_tests_scopes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Automatic_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0064F0-0E23-1442-8B82-B0CDAB038DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3727D3D-B399-9545-BC06-5EC873116AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1100" windowWidth="27640" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
   <si>
     <t>-</t>
   </si>
@@ -262,33 +262,6 @@
     <t>0 roles</t>
   </si>
   <si>
-    <t>{"entity": {"fish": {"access": ["read"]}, "fishingwater": {"access": ["read"]}}}</t>
-  </si>
-  <si>
-    <t>{"entity": "*", "access": ["read", "update"]}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> {"entity": "fisherman", "access": ["read"]}</t>
-  </si>
-  <si>
-    <t>{"entity": "fish": {"access":  ["read", "update"]}, "fisherman":  {"access": ["read", "update"]}, "fishingwater": {"access": ["read", "update", "delete"]}}</t>
-  </si>
-  <si>
-    <t>{"entity": "fish": {"access":  ["read"]}, "fishingwater": {"access":  ["read"]}, "fisherman": {"access":  ["read"]}}</t>
-  </si>
-  <si>
-    <t>{"entity": {"*": {"access": ["*"]}}}</t>
-  </si>
-  <si>
-    <t>{"entity": {"fish": {"access": ["*"]}, "fishingwater": {"access": ["read", "update", "delete"]}}}</t>
-  </si>
-  <si>
-    <t>{"entity": {"*": {"access": ["*"]}, "fish": {"access": ["*"]}, "fishingwater": {"access": ["*"]}}}</t>
-  </si>
-  <si>
-    <t>{"entity": "fish": {"access":  ["*"]}, "fishingwater": {"access":  ["*"]}}</t>
-  </si>
-  <si>
     <t>admin, fisherman</t>
   </si>
   <si>
@@ -301,28 +274,58 @@
     <t>secretary, guest</t>
   </si>
   <si>
-    <t>some_some_secretary</t>
-  </si>
-  <si>
-    <t>some_some_guest</t>
-  </si>
-  <si>
-    <t>some_some_fisherman</t>
-  </si>
-  <si>
-    <t>all_all, some_some_fisherman</t>
-  </si>
-  <si>
-    <t>all_some, some_some_fisherman</t>
-  </si>
-  <si>
-    <t>some_all, some_some_fisherman</t>
-  </si>
-  <si>
-    <t>some_some_secretary, some_some_guest</t>
-  </si>
-  <si>
     <t>ACLs</t>
+  </si>
+  <si>
+    <t>{"entity": {"*": ["read", "update"]}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {"entity": {"fisherman": ["read"]}}</t>
+  </si>
+  <si>
+    <t>{"entity": {"fish":  ["read"], "fishingwater": ["read"]}}</t>
+  </si>
+  <si>
+    <t>{"entity": {"fish": ["*"], "fishingwater": ["read", "update", "delete"]}}</t>
+  </si>
+  <si>
+    <t>{"entity": {"*": ["*"]}}</t>
+  </si>
+  <si>
+    <t>{"entity": {"*":  ["*"]}}</t>
+  </si>
+  <si>
+    <t>{"entity": {"fish": ["read"], "fishingwater": ["read"], "fisherman": ["read"]}}</t>
+  </si>
+  <si>
+    <t>some_some_for_secretary</t>
+  </si>
+  <si>
+    <t>some_some_for_guest</t>
+  </si>
+  <si>
+    <t>some_some_for_fisherman</t>
+  </si>
+  <si>
+    <t>all_all, some_some_for_fisherman</t>
+  </si>
+  <si>
+    <t>all_some, some_some_for_fisherman</t>
+  </si>
+  <si>
+    <t>some_all, some_some_for_fisherman</t>
+  </si>
+  <si>
+    <t>some_some_for_secretary, some_some_for_guest</t>
+  </si>
+  <si>
+    <t>{"entity": {"fish": ["*"], "*": ["read", "update"], "fishingwater": ["delete"]}}</t>
+  </si>
+  <si>
+    <t>{"entity": {"fish": ["*"],  "fishingwater": ["*"]}}</t>
+  </si>
+  <si>
+    <t>{"entity": {"fish": ["*"], "fishingwater": ["*"]}}</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1412,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1417,7 +1420,7 @@
     <col min="1" max="1" width="33.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="117.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -1442,7 +1445,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>57</v>
@@ -1475,7 +1478,7 @@
         <v>59</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1492,7 +1495,7 @@
         <v>70</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1506,10 +1509,10 @@
         <v>69</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1523,10 +1526,10 @@
         <v>71</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1540,10 +1543,10 @@
         <v>53</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1560,7 +1563,7 @@
         <v>58</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1571,13 +1574,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1588,13 +1591,13 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1605,13 +1608,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1622,13 +1625,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
